--- a/marketing_hub.xlsx
+++ b/marketing_hub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2026\0. 스터디\2025\streamlit_study\마케팅hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F21176-FD52-425C-9F6C-D99A9CCE8686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5657E9-B66D-4DA8-AF88-06CDFA5ABEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{095BD162-3FCA-4CFF-A0FF-4016CECDBBBD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
   <si>
     <t>마케팅팀 _ Smart Marketing Hub</t>
   </si>
@@ -124,10 +124,6 @@
   </si>
   <si>
     <t>https://news4daesungclient.streamlit.app/</t>
-  </si>
-  <si>
-    <t>Operational 
-Support</t>
   </si>
   <si>
     <t>대성에너지 메시지 자동화</t>
@@ -471,7 +467,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -517,9 +513,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -528,6 +521,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -545,15 +547,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -891,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE734F67-6E3F-4A0D-AE2A-D52F1874955A}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -906,13 +899,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -955,7 +948,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -972,7 +965,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
@@ -987,7 +980,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1002,7 +995,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
@@ -1017,7 +1010,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
@@ -1032,7 +1025,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1046,453 +1039,301 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="13" t="s">
+    <row r="12" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="26"/>
-      <c r="B14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="26"/>
-      <c r="B15" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="26"/>
-      <c r="B16" s="12" t="s">
-        <v>40</v>
+    <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="19"/>
+      <c r="B16" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="26"/>
-      <c r="B17" s="12" t="s">
+    <row r="17" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="20"/>
+      <c r="B17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="19"/>
+      <c r="B19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="19"/>
+      <c r="B20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="20"/>
+      <c r="B21" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="19"/>
+      <c r="B23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="19"/>
+      <c r="B24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="19"/>
+      <c r="B25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="D25" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="E25" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="20"/>
+      <c r="B26" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="C26" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="26"/>
-      <c r="B18" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="26"/>
-      <c r="B19" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="26"/>
-      <c r="B20" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="27"/>
-      <c r="B21" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="13" t="s">
+    <row r="27" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="26"/>
-      <c r="B27" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="28" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="27"/>
-      <c r="B28" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>25</v>
+      <c r="A28" s="19"/>
+      <c r="B28" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="26"/>
-      <c r="B30" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="26"/>
-      <c r="B31" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="27"/>
-      <c r="B32" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="26"/>
-      <c r="B34" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="26"/>
-      <c r="B35" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="26"/>
-      <c r="B36" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="27"/>
-      <c r="B37" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="26"/>
-      <c r="B39" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="14" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="27"/>
-      <c r="B40" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="D29" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="E29" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A38:A40"/>
+  <mergeCells count="6">
+    <mergeCell ref="A27:A29"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -1502,30 +1343,21 @@
     <hyperlink ref="D9" r:id="rId4" xr:uid="{69E5F510-DCEE-4DBC-B61D-D16CB34C87B6}"/>
     <hyperlink ref="D10" r:id="rId5" xr:uid="{629C0BC2-AFDE-4B3F-8122-C8D3BD9C2B3D}"/>
     <hyperlink ref="D11" r:id="rId6" xr:uid="{18DA179E-DE32-4D35-B9E1-21A5601866FD}"/>
-    <hyperlink ref="D13" r:id="rId7" xr:uid="{79A206F9-83C7-4D3E-8DEF-8B312F7CC659}"/>
-    <hyperlink ref="D14" r:id="rId8" xr:uid="{0E9B7C4E-ECC7-4F3B-84DB-4AEE015B62B9}"/>
-    <hyperlink ref="D15" r:id="rId9" xr:uid="{421A6424-7529-4AA9-804A-71538E435038}"/>
-    <hyperlink ref="D16" r:id="rId10" xr:uid="{5A135C2B-A996-48AE-9F72-FDBEF5E206AD}"/>
-    <hyperlink ref="D17" r:id="rId11" xr:uid="{A9AA64AC-99CA-4A28-99A8-B4A3F291C75E}"/>
-    <hyperlink ref="D18" r:id="rId12" xr:uid="{C7DC07B0-3291-42F8-88B3-41814141098F}"/>
-    <hyperlink ref="D19" r:id="rId13" xr:uid="{999B168E-C504-4AB0-BC38-DC1AC0C6AE8D}"/>
-    <hyperlink ref="D20" r:id="rId14" xr:uid="{0607DA95-2242-4FF1-9E8A-C6B16EE5D2BC}"/>
-    <hyperlink ref="D21" r:id="rId15" xr:uid="{8E3B4D0F-3152-4937-AC6F-987029D65EAA}"/>
-    <hyperlink ref="D26" r:id="rId16" xr:uid="{46B60EA8-B2A3-4B72-B267-01E93544A41A}"/>
-    <hyperlink ref="D27" r:id="rId17" xr:uid="{879D1E95-6BC7-48BC-B1C3-A209811C7D3A}"/>
-    <hyperlink ref="D28" r:id="rId18" xr:uid="{7556C996-B8A7-434D-9D62-16C7A446460A}"/>
-    <hyperlink ref="D29" r:id="rId19" xr:uid="{C1FBCA7A-6843-4B17-AF91-EE372BADDDE6}"/>
-    <hyperlink ref="D30" r:id="rId20" xr:uid="{34ED876C-4C80-40B4-9214-C90A9ACD0562}"/>
-    <hyperlink ref="D31" r:id="rId21" xr:uid="{97C5255C-1EE7-4EBD-93D8-C990E49FDE5E}"/>
-    <hyperlink ref="D32" r:id="rId22" xr:uid="{BAAC96C8-A8C7-420C-AEB9-B7DBE3AC0272}"/>
-    <hyperlink ref="D33" r:id="rId23" xr:uid="{F4F3E5B9-8A84-4162-B3F7-6049140091E1}"/>
-    <hyperlink ref="D34" r:id="rId24" xr:uid="{133C2513-6F68-4BB8-A22C-F4E12E05D8EE}"/>
-    <hyperlink ref="D35" r:id="rId25" xr:uid="{9D5EEE19-CBE2-4A92-81E4-5CCEFA4A782B}"/>
-    <hyperlink ref="D36" r:id="rId26" xr:uid="{901B1F29-6F8B-44A8-B73D-ECB33B4EC173}"/>
-    <hyperlink ref="D37" r:id="rId27" xr:uid="{FA2B4AB3-D3AD-4C45-B9AE-CB9894236C68}"/>
-    <hyperlink ref="D38" r:id="rId28" xr:uid="{46BC9914-DB59-44C2-AE1D-7DBE840FDF87}"/>
-    <hyperlink ref="D39" r:id="rId29" xr:uid="{C7D853A5-8AC2-48EE-9D09-F56A817230B3}"/>
-    <hyperlink ref="D40" r:id="rId30" xr:uid="{777FEE0E-6AA0-4D34-A657-F4F721388827}"/>
+    <hyperlink ref="D15" r:id="rId7" xr:uid="{46B60EA8-B2A3-4B72-B267-01E93544A41A}"/>
+    <hyperlink ref="D16" r:id="rId8" xr:uid="{879D1E95-6BC7-48BC-B1C3-A209811C7D3A}"/>
+    <hyperlink ref="D17" r:id="rId9" xr:uid="{7556C996-B8A7-434D-9D62-16C7A446460A}"/>
+    <hyperlink ref="D18" r:id="rId10" xr:uid="{C1FBCA7A-6843-4B17-AF91-EE372BADDDE6}"/>
+    <hyperlink ref="D19" r:id="rId11" xr:uid="{34ED876C-4C80-40B4-9214-C90A9ACD0562}"/>
+    <hyperlink ref="D20" r:id="rId12" xr:uid="{97C5255C-1EE7-4EBD-93D8-C990E49FDE5E}"/>
+    <hyperlink ref="D21" r:id="rId13" xr:uid="{BAAC96C8-A8C7-420C-AEB9-B7DBE3AC0272}"/>
+    <hyperlink ref="D22" r:id="rId14" xr:uid="{F4F3E5B9-8A84-4162-B3F7-6049140091E1}"/>
+    <hyperlink ref="D23" r:id="rId15" xr:uid="{133C2513-6F68-4BB8-A22C-F4E12E05D8EE}"/>
+    <hyperlink ref="D24" r:id="rId16" xr:uid="{9D5EEE19-CBE2-4A92-81E4-5CCEFA4A782B}"/>
+    <hyperlink ref="D25" r:id="rId17" xr:uid="{901B1F29-6F8B-44A8-B73D-ECB33B4EC173}"/>
+    <hyperlink ref="D26" r:id="rId18" xr:uid="{FA2B4AB3-D3AD-4C45-B9AE-CB9894236C68}"/>
+    <hyperlink ref="D27" r:id="rId19" xr:uid="{46BC9914-DB59-44C2-AE1D-7DBE840FDF87}"/>
+    <hyperlink ref="D28" r:id="rId20" xr:uid="{C7D853A5-8AC2-48EE-9D09-F56A817230B3}"/>
+    <hyperlink ref="D29" r:id="rId21" xr:uid="{777FEE0E-6AA0-4D34-A657-F4F721388827}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/marketing_hub.xlsx
+++ b/marketing_hub.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2026\0. 스터디\2025\streamlit_study\마케팅hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5657E9-B66D-4DA8-AF88-06CDFA5ABEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103BE49E-7D9F-4E7C-919A-5CAD33E61570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{095BD162-3FCA-4CFF-A0FF-4016CECDBBBD}"/>
+    <workbookView xWindow="-28920" yWindow="585" windowWidth="29040" windowHeight="15720" xr2:uid="{095BD162-3FCA-4CFF-A0FF-4016CECDBBBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>마케팅팀 _ Smart Marketing Hub</t>
   </si>
@@ -225,6 +225,15 @@
   </si>
   <si>
     <t>영업 도구(Action &amp; Sales Tool)</t>
+  </si>
+  <si>
+    <t>산업용 주요고객 분석 대시보드</t>
+  </si>
+  <si>
+    <t>연도별 추이 분석, 연도별 top20, 고객명별 상세 현황 등</t>
+  </si>
+  <si>
+    <t>https://daesung-industry-sale-yearly-top-n.streamlit.app/</t>
   </si>
 </sst>
 </file>
@@ -301,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -458,6 +467,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -467,7 +491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -548,6 +572,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -884,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE734F67-6E3F-4A0D-AE2A-D52F1874955A}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1167,150 +1194,158 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="20"/>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="20"/>
+      <c r="B22" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C22" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D22" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E22" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18" t="s">
+    <row r="23" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B23" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D23" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E23" s="13" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="19"/>
-      <c r="B23" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="19"/>
       <c r="B24" s="13" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="19"/>
       <c r="B25" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="20"/>
-      <c r="B26" s="15" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="20"/>
+      <c r="B27" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C27" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D27" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E27" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
+    <row r="28" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B28" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D28" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E28" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="19"/>
-      <c r="B28" s="13" t="s">
+    <row r="29" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="19"/>
+      <c r="B29" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D29" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E29" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="20"/>
-      <c r="B29" s="15" t="s">
+    <row r="30" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="20"/>
+      <c r="B30" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C30" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E30" s="15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
@@ -1326,14 +1361,21 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
+    <row r="33" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A28:A30"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -1349,15 +1391,16 @@
     <hyperlink ref="D18" r:id="rId10" xr:uid="{C1FBCA7A-6843-4B17-AF91-EE372BADDDE6}"/>
     <hyperlink ref="D19" r:id="rId11" xr:uid="{34ED876C-4C80-40B4-9214-C90A9ACD0562}"/>
     <hyperlink ref="D20" r:id="rId12" xr:uid="{97C5255C-1EE7-4EBD-93D8-C990E49FDE5E}"/>
-    <hyperlink ref="D21" r:id="rId13" xr:uid="{BAAC96C8-A8C7-420C-AEB9-B7DBE3AC0272}"/>
-    <hyperlink ref="D22" r:id="rId14" xr:uid="{F4F3E5B9-8A84-4162-B3F7-6049140091E1}"/>
-    <hyperlink ref="D23" r:id="rId15" xr:uid="{133C2513-6F68-4BB8-A22C-F4E12E05D8EE}"/>
-    <hyperlink ref="D24" r:id="rId16" xr:uid="{9D5EEE19-CBE2-4A92-81E4-5CCEFA4A782B}"/>
-    <hyperlink ref="D25" r:id="rId17" xr:uid="{901B1F29-6F8B-44A8-B73D-ECB33B4EC173}"/>
-    <hyperlink ref="D26" r:id="rId18" xr:uid="{FA2B4AB3-D3AD-4C45-B9AE-CB9894236C68}"/>
-    <hyperlink ref="D27" r:id="rId19" xr:uid="{46BC9914-DB59-44C2-AE1D-7DBE840FDF87}"/>
-    <hyperlink ref="D28" r:id="rId20" xr:uid="{C7D853A5-8AC2-48EE-9D09-F56A817230B3}"/>
-    <hyperlink ref="D29" r:id="rId21" xr:uid="{777FEE0E-6AA0-4D34-A657-F4F721388827}"/>
+    <hyperlink ref="D22" r:id="rId13" xr:uid="{BAAC96C8-A8C7-420C-AEB9-B7DBE3AC0272}"/>
+    <hyperlink ref="D23" r:id="rId14" xr:uid="{F4F3E5B9-8A84-4162-B3F7-6049140091E1}"/>
+    <hyperlink ref="D24" r:id="rId15" xr:uid="{133C2513-6F68-4BB8-A22C-F4E12E05D8EE}"/>
+    <hyperlink ref="D25" r:id="rId16" xr:uid="{9D5EEE19-CBE2-4A92-81E4-5CCEFA4A782B}"/>
+    <hyperlink ref="D26" r:id="rId17" xr:uid="{901B1F29-6F8B-44A8-B73D-ECB33B4EC173}"/>
+    <hyperlink ref="D27" r:id="rId18" xr:uid="{FA2B4AB3-D3AD-4C45-B9AE-CB9894236C68}"/>
+    <hyperlink ref="D28" r:id="rId19" xr:uid="{46BC9914-DB59-44C2-AE1D-7DBE840FDF87}"/>
+    <hyperlink ref="D29" r:id="rId20" xr:uid="{C7D853A5-8AC2-48EE-9D09-F56A817230B3}"/>
+    <hyperlink ref="D30" r:id="rId21" xr:uid="{777FEE0E-6AA0-4D34-A657-F4F721388827}"/>
+    <hyperlink ref="D21" r:id="rId22" xr:uid="{A009F8D5-5006-411F-8ACC-D061DC6602FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/marketing_hub.xlsx
+++ b/marketing_hub.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2026\0. 스터디\2025\streamlit_study\마케팅hub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2026\0. 스터디\2026\streamlit_study\마케팅hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103BE49E-7D9F-4E7C-919A-5CAD33E61570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882A7A91-41A0-4E1C-A95D-F070116F7A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="585" windowWidth="29040" windowHeight="15720" xr2:uid="{095BD162-3FCA-4CFF-A0FF-4016CECDBBBD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
   <si>
     <t>마케팅팀 _ Smart Marketing Hub</t>
   </si>
@@ -195,9 +195,6 @@
     <t>유효일수</t>
   </si>
   <si>
-    <t>주말, 공휴일, 연휴적용</t>
-  </si>
-  <si>
     <t>https://effective-days-choihanyoub.streamlit.app/</t>
   </si>
   <si>
@@ -234,13 +231,84 @@
   </si>
   <si>
     <t>https://daesung-industry-sale-yearly-top-n.streamlit.app/</t>
+  </si>
+  <si>
+    <t>인덕션 전환 추세 분석</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덕션 전환 추세 및 손실 추정량 분석</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주말</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공휴일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연휴적용</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://citygas-induction-dashboard-choihanyoub.streamlit.app/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★★</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +351,33 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -491,7 +586,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -546,6 +641,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -573,7 +671,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -911,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE734F67-6E3F-4A0D-AE2A-D52F1874955A}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -926,13 +1030,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -975,7 +1079,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -992,7 +1096,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="25"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
@@ -1007,7 +1111,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1022,7 +1126,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
@@ -1037,7 +1141,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
@@ -1052,7 +1156,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="26"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1075,7 +1179,7 @@
     </row>
     <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1100,8 +1204,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
-        <v>58</v>
+      <c r="A15" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>19</v>
@@ -1117,7 +1221,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="13" t="s">
         <v>22</v>
       </c>
@@ -1132,7 +1236,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="15" t="s">
         <v>26</v>
       </c>
@@ -1147,8 +1251,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
-        <v>59</v>
+      <c r="A18" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>8</v>
@@ -1164,7 +1268,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="19"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="13" t="s">
         <v>12</v>
       </c>
@@ -1179,7 +1283,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="19"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="13" t="s">
         <v>15</v>
       </c>
@@ -1194,38 +1298,38 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="19"/>
-      <c r="B21" s="27" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>64</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="20"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="D22" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="18" t="s">
-        <v>60</v>
+      <c r="A23" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>48</v>
@@ -1241,118 +1345,126 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="19"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="20"/>
+      <c r="B25" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="13" t="s">
+      <c r="E25" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="19"/>
-      <c r="B25" s="13" t="s">
+    <row r="26" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="20"/>
+      <c r="B26" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="19"/>
-      <c r="B26" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>25</v>
+      <c r="E26" s="30" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20"/>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="21"/>
+      <c r="B28" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D28" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E28" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="13" t="s">
+    <row r="29" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E29" s="13" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="19"/>
-      <c r="B29" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20"/>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="21"/>
+      <c r="B31" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C31" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D31" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E31" s="15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
@@ -1368,14 +1480,21 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
+    <row r="34" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A29:A31"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A23:A28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -1393,14 +1512,15 @@
     <hyperlink ref="D20" r:id="rId12" xr:uid="{97C5255C-1EE7-4EBD-93D8-C990E49FDE5E}"/>
     <hyperlink ref="D22" r:id="rId13" xr:uid="{BAAC96C8-A8C7-420C-AEB9-B7DBE3AC0272}"/>
     <hyperlink ref="D23" r:id="rId14" xr:uid="{F4F3E5B9-8A84-4162-B3F7-6049140091E1}"/>
-    <hyperlink ref="D24" r:id="rId15" xr:uid="{133C2513-6F68-4BB8-A22C-F4E12E05D8EE}"/>
-    <hyperlink ref="D25" r:id="rId16" xr:uid="{9D5EEE19-CBE2-4A92-81E4-5CCEFA4A782B}"/>
-    <hyperlink ref="D26" r:id="rId17" xr:uid="{901B1F29-6F8B-44A8-B73D-ECB33B4EC173}"/>
-    <hyperlink ref="D27" r:id="rId18" xr:uid="{FA2B4AB3-D3AD-4C45-B9AE-CB9894236C68}"/>
-    <hyperlink ref="D28" r:id="rId19" xr:uid="{46BC9914-DB59-44C2-AE1D-7DBE840FDF87}"/>
-    <hyperlink ref="D29" r:id="rId20" xr:uid="{C7D853A5-8AC2-48EE-9D09-F56A817230B3}"/>
-    <hyperlink ref="D30" r:id="rId21" xr:uid="{777FEE0E-6AA0-4D34-A657-F4F721388827}"/>
+    <hyperlink ref="D25" r:id="rId15" xr:uid="{133C2513-6F68-4BB8-A22C-F4E12E05D8EE}"/>
+    <hyperlink ref="D26" r:id="rId16" xr:uid="{9D5EEE19-CBE2-4A92-81E4-5CCEFA4A782B}"/>
+    <hyperlink ref="D27" r:id="rId17" xr:uid="{901B1F29-6F8B-44A8-B73D-ECB33B4EC173}"/>
+    <hyperlink ref="D28" r:id="rId18" xr:uid="{FA2B4AB3-D3AD-4C45-B9AE-CB9894236C68}"/>
+    <hyperlink ref="D29" r:id="rId19" xr:uid="{46BC9914-DB59-44C2-AE1D-7DBE840FDF87}"/>
+    <hyperlink ref="D30" r:id="rId20" xr:uid="{C7D853A5-8AC2-48EE-9D09-F56A817230B3}"/>
+    <hyperlink ref="D31" r:id="rId21" xr:uid="{777FEE0E-6AA0-4D34-A657-F4F721388827}"/>
     <hyperlink ref="D21" r:id="rId22" xr:uid="{A009F8D5-5006-411F-8ACC-D061DC6602FA}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{8F098067-92A2-4D1B-92BB-D7B15D11F4BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
